--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="판매(개인)" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,9 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11월 26일</t>
-  </si>
-  <si>
     <t>결제확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +170,46 @@
   </si>
   <si>
     <t>지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국립중앙도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1권에 대한 보상청구서 받을 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,10 +602,11 @@
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -588,19 +626,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -618,17 +659,20 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -647,14 +691,17 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -673,14 +720,17 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -699,14 +749,17 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -724,17 +777,20 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -751,14 +807,17 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -775,14 +834,17 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -797,20 +859,23 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -827,12 +892,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -840,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -849,26 +917,40 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -879,10 +961,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -893,10 +974,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -905,10 +985,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -917,7 +996,6 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -929,7 +1007,6 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -941,7 +1018,6 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -952,7 +1028,6 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -963,7 +1038,6 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -974,7 +1048,6 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -985,7 +1058,6 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -996,7 +1068,6 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1007,7 +1078,6 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1018,7 +1088,6 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1029,7 +1098,6 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1040,7 +1108,6 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1051,7 +1118,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
   </sheetData>
@@ -1076,15 +1142,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="5" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="41.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,17 +1169,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1117,29 +1193,43 @@
         <v>19</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1149,8 +1239,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1160,8 +1251,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1171,8 +1263,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,8 +1275,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1193,8 +1287,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1204,8 +1299,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1215,8 +1311,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1226,8 +1323,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1237,8 +1335,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1248,6 +1347,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="판매(개인)" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11월 24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 25일</t>
-  </si>
-  <si>
     <t>정성훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11월 24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국립중앙도서관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +195,18 @@
   </si>
   <si>
     <t>1권에 대한 보상청구서 받을 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,19 +623,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -648,9 +645,7 @@
       <c r="B2" s="1">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1">
@@ -669,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -679,9 +674,7 @@
       <c r="B3" s="1">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -708,9 +701,7 @@
       <c r="B4" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -727,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -737,9 +728,7 @@
       <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
@@ -756,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -766,9 +755,7 @@
       <c r="B6" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
@@ -777,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
@@ -787,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -797,14 +784,14 @@
       <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -814,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -824,14 +811,14 @@
       <c r="B8" s="1">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>43427</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
@@ -841,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -851,18 +838,16 @@
       <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
@@ -872,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -882,14 +867,14 @@
       <c r="B10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
@@ -897,7 +882,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -907,14 +892,14 @@
       <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
@@ -922,7 +907,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -932,14 +917,14 @@
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
@@ -947,18 +932,24 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
@@ -967,22 +958,36 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
@@ -1144,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1169,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1178,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1210,20 +1215,20 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,22 +142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매자정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +195,94 @@
   </si>
   <si>
     <t>이소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두루지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정운종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두루지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장원우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까나리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장원우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,24 +662,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -617,275 +693,295 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -894,86 +990,94 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>3</v>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -982,47 +1086,91 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1032,7 +1180,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1042,7 +1190,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1052,7 +1200,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1062,7 +1210,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1072,7 +1220,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1082,7 +1230,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1092,7 +1240,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1102,7 +1250,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,7 +1260,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,7 +1270,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
   </sheetData>
@@ -1150,7 +1298,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1183,7 +1331,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1199,7 +1347,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1215,20 +1363,20 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB6F8B-91DE-3D4B-AEAD-9A5BD653F58D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19560" windowHeight="11920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="판매(개인)" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,17 +284,25 @@
   </si>
   <si>
     <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 사평 4길 24-5 201호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +460,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -486,6 +512,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,25 +704,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -711,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -741,7 +784,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -764,14 +807,14 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -794,14 +837,14 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -824,14 +867,14 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -861,7 +904,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -891,7 +934,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -921,7 +964,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -949,9 +992,11 @@
       <c r="I9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -981,7 +1026,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1005,7 +1050,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1029,7 +1074,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1053,7 +1098,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1077,7 +1122,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1101,7 +1146,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1125,7 +1170,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1149,7 +1194,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1173,7 +1218,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1183,7 +1228,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1193,7 +1238,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1203,7 +1248,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1213,7 +1258,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1223,7 +1268,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1233,7 +1278,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1243,7 +1288,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1253,7 +1298,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1263,7 +1308,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1281,12 +1326,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,21 +1339,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="5" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="41.375" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1382,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1360,7 +1405,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>37</v>
@@ -1382,7 +1427,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1394,7 +1439,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1406,7 +1451,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1418,7 +1463,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1430,7 +1475,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1442,7 +1487,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1454,7 +1499,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1466,7 +1511,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1478,7 +1523,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1490,7 +1535,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -11,12 +11,15 @@
     <sheet name="판매(서점)" sheetId="3" r:id="rId2"/>
     <sheet name="무료배포" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'판매(개인)'!$H$1:$H$28</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,11 +137,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>손은정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국립중앙도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1권에 대한 보상청구서 받을 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두루지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>손님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>손은정</t>
+    <t>정운종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두루지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장원우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까나리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장원우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허정아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,143 +281,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서희지인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국립중앙도서관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1권에 대한 보상청구서 받을 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김나솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허정아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이소영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두루지인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정운종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두루지인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 25일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 24일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 23일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장원우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 22일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 22일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 21일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>까나리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정성훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장원우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유영상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허정아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강고루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두루지인-디자이너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커스페이스에서 만난 손님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,6 +411,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -662,10 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +738,7 @@
     <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -699,19 +758,25 @@
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -719,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -728,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -740,8 +805,11 @@
         <v>26</v>
       </c>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -749,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -758,20 +826,23 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -779,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -788,20 +859,23 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -809,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -818,20 +892,23 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -839,16 +916,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -860,8 +937,11 @@
         <v>28</v>
       </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -869,16 +949,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -887,11 +967,14 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -899,16 +982,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -917,11 +1000,14 @@
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -929,29 +1015,32 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -959,53 +1048,65 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1029,7 +1130,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1053,7 +1154,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1062,7 +1163,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1073,11 +1174,11 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1086,7 +1187,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1097,11 +1198,11 @@
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1110,7 +1211,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1121,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -1134,7 +1235,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1145,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1158,7 +1259,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1169,11 +1270,11 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1183,7 +1284,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1193,7 +1294,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1203,7 +1304,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1213,7 +1314,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1223,7 +1324,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1233,7 +1334,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1243,7 +1344,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1253,7 +1354,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1263,7 +1364,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1274,9 +1375,16 @@
       <c r="J28" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H28">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="배송전"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1322,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1331,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1363,20 +1471,20 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,34 @@
   </si>
   <si>
     <t>메이커스페이스에서 만난 손님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +752,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,12 +804,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>55</v>
@@ -799,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>
@@ -814,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
@@ -847,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
@@ -880,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>51</v>
@@ -908,12 +936,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
@@ -931,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
@@ -941,12 +969,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>51</v>
@@ -964,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>78</v>
@@ -979,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
@@ -1012,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -1045,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
@@ -1078,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>73</v>
@@ -1111,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
@@ -1135,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
@@ -1159,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
@@ -1183,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1207,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1226,12 +1254,12 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1250,12 +1278,12 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>11</v>
+        <v>2018.11</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1274,17 +1302,40 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="I19" s="1"/>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2018.12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1294,7 +1345,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1304,7 +1355,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1314,7 +1365,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1324,7 +1375,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1334,7 +1385,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1344,7 +1395,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1354,7 +1405,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1364,7 +1415,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,14 @@
   </si>
   <si>
     <t>서희지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,6 +450,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +763,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1217,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1220,15 +1231,18 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J15" s="1"/>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1457,14 +1471,15 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="5" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="41.375" customWidth="1"/>
+    <col min="8" max="8" width="27.875" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1492,7 +1507,9 @@
       <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>

--- a/구매자내역.xlsx
+++ b/구매자내역.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97FC8F-6E72-B647-A481-382A2C9B7F33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22300" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="판매(개인)" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,17 +375,29 @@
   </si>
   <si>
     <t>만나서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강두루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 우정로 65  2층 세이브속독</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +561,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -583,6 +613,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,26 +805,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -815,7 +863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -848,7 +896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -881,7 +929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -914,7 +962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -947,7 +995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -980,7 +1028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1013,7 +1061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1046,7 +1094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1079,7 +1127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1112,7 +1160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1145,7 +1193,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1169,7 +1217,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1193,7 +1241,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1217,7 +1265,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1244,7 +1292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1268,7 +1316,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1279,8 +1327,12 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -1291,8 +1343,14 @@
         <v>45</v>
       </c>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1316,7 +1374,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1349,7 +1407,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1359,7 +1417,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1369,7 +1427,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1379,7 +1437,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1389,7 +1447,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1399,7 +1457,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1409,7 +1467,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1419,7 +1477,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1429,7 +1487,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1440,7 +1498,7 @@
       <c r="J28" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H28">
+  <autoFilter ref="H1:H28" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="배송전"/>
@@ -1454,12 +1512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1467,22 +1525,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="5" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="27.875" customWidth="1"/>
-    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1571,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1536,7 +1594,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -1558,7 +1616,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1570,7 +1628,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1582,7 +1640,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1594,7 +1652,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1606,7 +1664,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1618,7 +1676,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1630,7 +1688,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1642,7 +1700,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1654,7 +1712,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1666,7 +1724,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
